--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$60</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="483">
   <si>
     <t>Path</t>
   </si>
@@ -1536,106 +1536,6 @@
   </si>
   <si>
     <t>outBoundRelationship[typeCode=COMP]</t>
-  </si>
-  <si>
-    <t>Observation.component.id</t>
-  </si>
-  <si>
-    <t>Observation.component.extension</t>
-  </si>
-  <si>
-    <t>Observation.component.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.component.code</t>
-  </si>
-  <si>
-    <t>Type of component observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
-  </si>
-  <si>
-    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>Observation.component.value[x]</t>
-  </si>
-  <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
-  </si>
-  <si>
-    <t>Observation.component.dataAbsentReason</t>
-  </si>
-  <si>
-    <t>Why the component result is missing</t>
-  </si>
-  <si>
-    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
-  </si>
-  <si>
-    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
-  </si>
-  <si>
-    <t>Observation.component.interpretation</t>
-  </si>
-  <si>
-    <t>Observation.component.referenceRange</t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation of component result</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
-  </si>
-  <si>
-    <t>GVHD</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://cdebrowser.nci.nih.gov"/&gt;
-    &lt;code value="3005293"/&gt;
-    &lt;display value="Type of Graft vs Host Disease (GVHD)"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://fhir.nmdp.org/ig/cibmtr-reporting/ValueSet/gvhdtype-valueset</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP78"/>
+  <dimension ref="A1:AP60"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1794,7 +1694,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="21.640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.57421875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
@@ -1817,13 +1717,13 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.7421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.09765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="35.85546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
@@ -9069,2192 +8969,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AB74" s="2"/>
-      <c r="AC74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="X75" s="2"/>
-      <c r="Y75" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AP78">
+  <autoFilter ref="A1:AP60">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11264,7 +8980,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI59">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="505">
   <si>
     <t>Path</t>
   </si>
@@ -1525,17 +1525,85 @@
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t>containment by OBX-4?</t>
+  </si>
+  <si>
+    <t>outBoundRelationship[typeCode=COMP]</t>
+  </si>
+  <si>
+    <t>Observation.component.id</t>
+  </si>
+  <si>
+    <t>Observation.component.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.component.code</t>
+  </si>
+  <si>
+    <t>Type of component observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "code".</t>
+  </si>
+  <si>
+    <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR +&lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Actual component result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
+  </si>
+  <si>
+    <t>Observation.component.dataAbsentReason</t>
+  </si>
+  <si>
+    <t>Why the component result is missing</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value in the element Observation.component.value[x] is missing.</t>
+  </si>
+  <si>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
+The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
 </t>
   </si>
   <si>
-    <t>Slice based on the component.code pattern</t>
-  </si>
-  <si>
-    <t>containment by OBX-4?</t>
-  </si>
-  <si>
-    <t>outBoundRelationship[typeCode=COMP]</t>
+    <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>Observation.component.referenceRange</t>
+  </si>
+  <si>
+    <t>Provides guide for interpretation of component result</t>
+  </si>
+  <si>
+    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP60"/>
+  <dimension ref="A1:AP68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1720,10 +1788,10 @@
     <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.09765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
@@ -3673,7 +3741,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>56</v>
@@ -8921,16 +8989,16 @@
         <v>46</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>479</v>
+        <v>46</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>480</v>
+        <v>46</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>474</v>
@@ -8957,20 +9025,990 @@
         <v>46</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AO60" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP60" t="s" s="2">
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP60">
+  <autoFilter ref="A1:AP68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8980,7 +10018,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T13:25:29-05:00</t>
+    <t>2023-02-02T13:14:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,6 +120,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -259,6 +259,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Measurements and simple assertions</t>
   </si>
   <si>
@@ -268,10 +272,6 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -291,115 +291,115 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Observation.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t>Observation.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Observation.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Observation.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Observation.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
     <t>Observation.meta.lastUpdated</t>
   </si>
   <si>
@@ -493,15 +493,27 @@
     <t>Meta.security</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter</t>
+  </si>
+  <si>
     <t>TransplantCenter</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter.id</t>
+  </si>
+  <si>
     <t>Observation.meta.security.id</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter.extension</t>
+  </si>
+  <si>
     <t>Observation.meta.security.extension</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter.system</t>
+  </si>
+  <si>
     <t>Observation.meta.security.system</t>
   </si>
   <si>
@@ -529,6 +541,9 @@
     <t>./codeSystem</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter.version</t>
+  </si>
+  <si>
     <t>Observation.meta.security.version</t>
   </si>
   <si>
@@ -548,6 +563,9 @@
   </si>
   <si>
     <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.meta.security:TransplantCenter.code</t>
   </si>
   <si>
     <t>Observation.meta.security.code</t>
@@ -579,6 +597,9 @@
     <t>./code</t>
   </si>
   <si>
+    <t>Observation.meta.security:TransplantCenter.display</t>
+  </si>
+  <si>
     <t>Observation.meta.security.display</t>
   </si>
   <si>
@@ -598,6 +619,9 @@
   </si>
   <si>
     <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.meta.security:TransplantCenter.userSelected</t>
   </si>
   <si>
     <t>Observation.meta.security.userSelected</t>
@@ -923,6 +947,9 @@
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.category:Laboratory</t>
   </si>
   <si>
     <t>Laboratory</t>
@@ -1072,7 +1099,7 @@
   </si>
   <si>
     <t>dateTime
-Period</t>
+PeriodTiminginstant</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -1092,7 +1119,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
+us-core-1:Datetime must be at least to day. {Observation.effectiveDateTime.exists() implies Observation.effectiveDateTime.toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1160,13 +1187,13 @@
   </si>
   <si>
     <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+CodeableConcept</t>
   </si>
   <si>
     <t>Result Value</t>
   </si>
   <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD** be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults) if the concept exists. If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -1660,6 +1687,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -2032,48 +2063,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.57421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.8984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="242.6875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="242.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="103.8828125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2208,19 +2238,19 @@
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>79</v>
@@ -2240,14 +2270,14 @@
       <c r="M2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
         <v>79</v>
       </c>
@@ -2288,22 +2318,22 @@
         <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH2" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH2" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>84</v>
@@ -2328,46 +2358,46 @@
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
         <v>79</v>
       </c>
@@ -2408,16 +2438,16 @@
         <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF3" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2448,44 +2478,44 @@
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J4" t="s" s="2">
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
         <v>79</v>
       </c>
@@ -2526,19 +2556,19 @@
         <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH4" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>79</v>
@@ -2564,96 +2594,96 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F5" t="s" s="2">
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
@@ -2684,20 +2714,20 @@
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
+      <c r="B6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2705,25 +2735,25 @@
         <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2752,34 +2782,34 @@
         <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AE6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH6" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2804,102 +2834,102 @@
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J7" t="s" s="2">
+      <c r="K7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE7" t="s" s="2">
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -2924,46 +2954,46 @@
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J8" t="s" s="2">
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
         <v>79</v>
       </c>
@@ -3004,22 +3034,22 @@
         <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI8" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -3044,46 +3074,46 @@
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J9" t="s" s="2">
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
         <v>79</v>
       </c>
@@ -3124,22 +3154,22 @@
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH9" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH9" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3164,46 +3194,46 @@
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="B10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J10" t="s" s="2">
+      <c r="K10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3244,22 +3274,22 @@
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH10" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH10" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3284,46 +3314,46 @@
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
+      <c r="B11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="G11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3340,46 +3370,46 @@
         <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AB11" t="s" s="2">
+      <c r="AC11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AC11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AE11" t="s" s="2">
+      <c r="AF11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3400,52 +3430,52 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="C12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J12" t="s" s="2">
+      <c r="K12" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3462,17 +3492,17 @@
         <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3486,22 +3516,22 @@
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AF12" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH12" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3524,22 +3554,22 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3547,23 +3577,23 @@
         <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3604,16 +3634,16 @@
         <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
@@ -3642,22 +3672,22 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3665,25 +3695,25 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3712,34 +3742,34 @@
         <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AC14" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH14" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3762,55 +3792,55 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J15" t="s" s="2">
+      <c r="K15" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K15" t="s" s="2">
-        <v>157</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>79</v>
@@ -3846,22 +3876,22 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH15" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -3870,10 +3900,10 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -3884,48 +3914,48 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3966,22 +3996,22 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -3990,10 +4020,10 @@
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4004,48 +4034,48 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J17" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
         <v>79</v>
       </c>
@@ -4086,22 +4116,22 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH17" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI17" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4110,10 +4140,10 @@
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>79</v>
@@ -4124,48 +4154,48 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="K18" t="s" s="2">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4206,22 +4236,22 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4230,10 +4260,10 @@
         <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>79</v>
@@ -4244,50 +4274,50 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4328,22 +4358,22 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4352,10 +4382,10 @@
         <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4366,48 +4396,48 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J20" t="s" s="2">
+      <c r="K20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4424,16 +4454,16 @@
         <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4448,22 +4478,22 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4486,48 +4516,48 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>206</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4568,22 +4598,22 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4606,22 +4636,22 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4629,25 +4659,25 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4664,16 +4694,16 @@
         <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4688,22 +4718,22 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4726,22 +4756,22 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4749,25 +4779,25 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4808,22 +4838,22 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH23" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
@@ -4835,7 +4865,7 @@
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4846,22 +4876,22 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4869,25 +4899,25 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4928,17 +4958,17 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4955,7 +4985,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4966,22 +4996,22 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4989,25 +5019,25 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>235</v>
-      </c>
       <c r="M25" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5048,23 +5078,23 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5075,7 +5105,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5086,50 +5116,50 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I26" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="O26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5170,34 +5200,34 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5208,48 +5238,48 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J27" t="s" s="2">
-        <v>243</v>
-      </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5290,37 +5320,37 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH27" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>79</v>
@@ -5328,48 +5358,48 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J28" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J28" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5410,34 +5440,34 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH28" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5448,48 +5478,48 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J29" t="s" s="2">
-        <v>262</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5530,34 +5560,34 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH29" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5566,23 +5596,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>90</v>
@@ -5591,27 +5621,27 @@
         <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>270</v>
+        <v>179</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5628,14 +5658,14 @@
         <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5650,37 +5680,37 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>269</v>
+        <v>123</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5688,50 +5718,50 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="G31" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="H31" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="P31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5748,44 +5778,44 @@
         <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AB31" s="2"/>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5797,68 +5827,68 @@
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>302</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>79</v>
@@ -5870,16 +5900,16 @@
         <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5894,22 +5924,22 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>281</v>
+        <v>123</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
@@ -5921,61 +5951,61 @@
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J33" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5992,16 +6022,16 @@
         <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X33" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="Y33" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -6016,88 +6046,88 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J34" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6138,37 +6168,37 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>308</v>
+        <v>123</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -6176,48 +6206,48 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J35" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6258,22 +6288,22 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AG35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6282,13 +6312,13 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6296,50 +6326,50 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J36" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J36" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6380,88 +6410,88 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J37" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J37" t="s" s="2">
-        <v>337</v>
-      </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6502,37 +6532,37 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH37" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6540,48 +6570,48 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J38" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J38" t="s" s="2">
+      <c r="K38" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6622,22 +6652,22 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AG38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH38" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
@@ -6646,13 +6676,13 @@
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>79</v>
@@ -6660,48 +6690,48 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J39" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6742,88 +6772,88 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AG39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="H40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J40" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6864,88 +6894,88 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH40" t="s" s="2">
-        <v>370</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="H41" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6962,14 +6992,14 @@
         <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X41" s="2"/>
-      <c r="Y41" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6984,22 +7014,22 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH41" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH41" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7008,10 +7038,10 @@
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7022,22 +7052,22 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7045,27 +7075,27 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>386</v>
+        <v>290</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7082,16 +7112,16 @@
         <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X42" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Y42" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -7106,60 +7136,60 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH42" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH42" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7167,27 +7197,27 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7228,22 +7258,22 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>405</v>
       </c>
       <c r="AG43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
@@ -7252,10 +7282,10 @@
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7266,22 +7296,22 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7289,25 +7319,25 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7324,16 +7354,16 @@
         <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>408</v>
+        <v>209</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7348,60 +7378,60 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="AG44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH44" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7409,27 +7439,27 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>415</v>
+        <v>290</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7446,16 +7476,16 @@
         <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>419</v>
+        <v>209</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7470,22 +7500,22 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AG45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7494,10 +7524,10 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7508,22 +7538,22 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7531,25 +7561,25 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7590,60 +7620,60 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="AG46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7651,25 +7681,25 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7710,60 +7740,60 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="AG47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7771,27 +7801,27 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7832,22 +7862,22 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>450</v>
       </c>
       <c r="AG48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH48" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI48" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>456</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7856,10 +7886,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -7870,22 +7900,22 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7893,23 +7923,23 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7950,16 +7980,16 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH49" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
@@ -7988,22 +8018,22 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8011,25 +8041,25 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8070,22 +8100,22 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8108,50 +8138,50 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="L51" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M51" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N51" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="O51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8192,23 +8222,23 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH51" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8219,7 +8249,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8230,22 +8260,22 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8253,23 +8283,23 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8310,22 +8340,22 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>466</v>
       </c>
       <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH52" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>470</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8334,10 +8364,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8348,22 +8378,22 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8371,23 +8401,23 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8428,22 +8458,22 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>473</v>
       </c>
       <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH53" t="s" s="2">
-        <v>461</v>
-      </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>470</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8452,10 +8482,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8466,22 +8496,22 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8489,27 +8519,27 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>469</v>
+        <v>290</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8526,16 +8556,16 @@
         <v>79</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>473</v>
+        <v>222</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>483</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8550,34 +8580,34 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>477</v>
       </c>
       <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH54" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8588,22 +8618,22 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8611,27 +8641,27 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>478</v>
+        <v>290</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8648,16 +8678,16 @@
         <v>79</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>482</v>
+        <v>209</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8672,34 +8702,34 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH55" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI55" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8710,22 +8740,22 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8733,25 +8763,25 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>488</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8792,22 +8822,22 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH56" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8819,7 +8849,7 @@
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8830,22 +8860,22 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8853,23 +8883,23 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>491</v>
+        <v>102</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8910,22 +8940,22 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>499</v>
       </c>
       <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH57" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
@@ -8934,10 +8964,10 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -8948,48 +8978,48 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J58" t="s" s="2">
-        <v>495</v>
-      </c>
       <c r="K58" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9030,22 +9060,22 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>77</v>
+        <v>503</v>
       </c>
       <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH58" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9054,10 +9084,10 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9068,48 +9098,48 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J59" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9150,22 +9180,22 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>77</v>
+        <v>510</v>
       </c>
       <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH59" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9174,10 +9204,10 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9188,50 +9218,50 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J60" t="s" s="2">
-        <v>442</v>
-      </c>
       <c r="K60" t="s" s="2">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9272,22 +9302,22 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>507</v>
+        <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>77</v>
+        <v>516</v>
       </c>
       <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH60" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -9296,10 +9326,10 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9310,22 +9340,22 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9333,23 +9363,23 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9390,16 +9420,16 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AF61" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9428,22 +9458,22 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9451,25 +9481,25 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>79</v>
-      </c>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9510,22 +9540,22 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AF62" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH62" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -9548,50 +9578,50 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G63" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H63" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>90</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K63" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="M63" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9632,23 +9662,23 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH63" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9659,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9670,50 +9700,50 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>89</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J64" t="s" s="2">
-        <v>282</v>
-      </c>
       <c r="K64" t="s" s="2">
-        <v>518</v>
+        <v>290</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>299</v>
+        <v>529</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9730,16 +9760,16 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>521</v>
+        <v>209</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>301</v>
+        <v>530</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9754,37 +9784,37 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>517</v>
+        <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>89</v>
+        <v>526</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9792,50 +9822,50 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J65" t="s" s="2">
-        <v>365</v>
-      </c>
       <c r="K65" t="s" s="2">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9876,60 +9906,60 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>77</v>
+        <v>532</v>
       </c>
       <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH65" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9937,27 +9967,27 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>529</v>
+        <v>290</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
         <v>79</v>
       </c>
@@ -9974,16 +10004,16 @@
         <v>79</v>
       </c>
       <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X66" t="s" s="2">
-        <v>532</v>
-      </c>
       <c r="Y66" t="s" s="2">
-        <v>381</v>
+        <v>542</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9998,22 +10028,22 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AH66" t="s" s="2">
-        <v>533</v>
-      </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>543</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10022,10 +10052,10 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10036,22 +10066,22 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10059,27 +10089,27 @@
         <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>386</v>
+        <v>290</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
       <c r="R67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10096,16 +10126,16 @@
         <v>79</v>
       </c>
       <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="X67" t="s" s="2">
-        <v>390</v>
-      </c>
       <c r="Y67" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10120,60 +10150,60 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>77</v>
+        <v>544</v>
       </c>
       <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH67" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10184,24 +10214,24 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>445</v>
+        <v>547</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10242,22 +10272,22 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>77</v>
+        <v>545</v>
       </c>
       <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AH68" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10266,10 +10296,10 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T10:36:55-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2063,17 +2063,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2082,28 +2082,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.8984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="242.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.8828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-cibmtr-observation-lab.xlsx
+++ b/StructureDefinition-cibmtr-observation-lab.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-23T10:17:11-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
